--- a/1_政策宣傳執情形/總整理/陸委會.xlsx
+++ b/1_政策宣傳執情形/總整理/陸委會.xlsx
@@ -828,43 +828,43 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col max="1" min="1" width="9.10"/>
-    <col max="2" min="2" width="9.10"/>
-    <col max="3" min="3" width="9.10"/>
-    <col max="4" min="4" width="9.10"/>
-    <col max="5" min="5" width="9.10"/>
-    <col max="6" min="6" width="9.10"/>
-    <col max="7" min="7" width="9.10"/>
-    <col max="8" min="8" width="9.10"/>
+    <col width="9.10" max="1" min="1"/>
+    <col width="9.10" max="2" min="2"/>
+    <col width="9.10" max="3" min="3"/>
+    <col width="9.10" max="4" min="4"/>
+    <col width="9.10" max="5" min="5"/>
+    <col width="9.10" max="6" min="6"/>
+    <col width="9.10" max="7" min="7"/>
+    <col width="9.10" max="8" min="8"/>
   </cols>
   <sheetData>
-    <row spans="1:8" r="1">
-      <c s="1" t="s" r="A1">
+    <row r="1" spans="1:8">
+      <c t="s" s="1" r="A1">
         <v>95</v>
       </c>
-      <c s="1" t="s" r="B1">
+      <c t="s" s="1" r="B1">
         <v>124</v>
       </c>
-      <c s="1" t="s" r="C1">
+      <c t="s" s="1" r="C1">
         <v>136</v>
       </c>
-      <c s="1" t="s" r="D1">
+      <c t="s" s="1" r="D1">
         <v>134</v>
       </c>
-      <c s="1" t="s" r="E1">
+      <c t="s" s="1" r="E1">
         <v>143</v>
       </c>
-      <c s="1" t="s" r="F1">
+      <c t="s" s="1" r="F1">
         <v>117</v>
       </c>
-      <c s="1" t="s" r="G1">
+      <c t="s" s="1" r="G1">
         <v>141</v>
       </c>
-      <c s="1" t="s" r="H1">
+      <c t="s" s="1" r="H1">
         <v>96</v>
       </c>
     </row>
-    <row spans="1:8" r="2">
+    <row r="2" spans="1:8">
       <c t="s" r="A2">
         <v>111</v>
       </c>
@@ -887,7 +887,7 @@
         <v>144</v>
       </c>
     </row>
-    <row spans="1:8" r="3">
+    <row r="3" spans="1:8">
       <c t="s" r="A3">
         <v>133</v>
       </c>
@@ -910,7 +910,7 @@
         <v>144</v>
       </c>
     </row>
-    <row spans="1:8" r="4">
+    <row r="4" spans="1:8">
       <c t="s" r="A4">
         <v>123</v>
       </c>
@@ -933,7 +933,7 @@
         <v>144</v>
       </c>
     </row>
-    <row spans="1:8" r="5">
+    <row r="5" spans="1:8">
       <c t="s" r="A5">
         <v>110</v>
       </c>
@@ -956,7 +956,7 @@
         <v>144</v>
       </c>
     </row>
-    <row spans="1:8" r="6">
+    <row r="6" spans="1:8">
       <c t="s" r="A6">
         <v>5</v>
       </c>
@@ -979,7 +979,7 @@
         <v>144</v>
       </c>
     </row>
-    <row spans="1:8" r="7">
+    <row r="7" spans="1:8">
       <c t="s" r="A7">
         <v>118</v>
       </c>
@@ -1002,7 +1002,7 @@
         <v>144</v>
       </c>
     </row>
-    <row spans="1:8" r="8">
+    <row r="8" spans="1:8">
       <c t="s" r="A8">
         <v>129</v>
       </c>
@@ -1025,7 +1025,7 @@
         <v>144</v>
       </c>
     </row>
-    <row spans="1:8" r="9">
+    <row r="9" spans="1:8">
       <c t="s" r="A9">
         <v>112</v>
       </c>
@@ -1048,7 +1048,7 @@
         <v>144</v>
       </c>
     </row>
-    <row spans="1:8" r="10">
+    <row r="10" spans="1:8">
       <c t="s" r="A10">
         <v>70</v>
       </c>
@@ -1071,7 +1071,7 @@
         <v>144</v>
       </c>
     </row>
-    <row spans="1:8" r="11">
+    <row r="11" spans="1:8">
       <c t="s" r="A11">
         <v>109</v>
       </c>
@@ -1094,7 +1094,7 @@
         <v>144</v>
       </c>
     </row>
-    <row spans="1:8" r="12">
+    <row r="12" spans="1:8">
       <c t="s" r="A12">
         <v>128</v>
       </c>
@@ -1117,7 +1117,7 @@
         <v>144</v>
       </c>
     </row>
-    <row spans="1:8" r="13">
+    <row r="13" spans="1:8">
       <c t="s" r="A13">
         <v>138</v>
       </c>
@@ -1140,7 +1140,7 @@
         <v>144</v>
       </c>
     </row>
-    <row spans="1:8" r="14">
+    <row r="14" spans="1:8">
       <c t="s" r="A14">
         <v>76</v>
       </c>
@@ -1163,7 +1163,7 @@
         <v>144</v>
       </c>
     </row>
-    <row spans="1:8" r="15">
+    <row r="15" spans="1:8">
       <c t="s" r="A15">
         <v>107</v>
       </c>
@@ -1186,7 +1186,7 @@
         <v>144</v>
       </c>
     </row>
-    <row spans="1:8" r="16">
+    <row r="16" spans="1:8">
       <c t="s" r="A16">
         <v>106</v>
       </c>
@@ -1209,7 +1209,7 @@
         <v>144</v>
       </c>
     </row>
-    <row spans="1:8" r="17">
+    <row r="17" spans="1:8">
       <c t="s" r="A17">
         <v>125</v>
       </c>
@@ -1232,7 +1232,7 @@
         <v>144</v>
       </c>
     </row>
-    <row spans="1:8" r="18">
+    <row r="18" spans="1:8">
       <c t="s" r="A18">
         <v>119</v>
       </c>
@@ -1255,7 +1255,7 @@
         <v>144</v>
       </c>
     </row>
-    <row spans="1:8" r="19">
+    <row r="19" spans="1:8">
       <c t="s" r="A19">
         <v>75</v>
       </c>
@@ -1278,7 +1278,7 @@
         <v>144</v>
       </c>
     </row>
-    <row spans="1:8" r="20">
+    <row r="20" spans="1:8">
       <c t="s" r="A20">
         <v>106</v>
       </c>
@@ -1301,7 +1301,7 @@
         <v>144</v>
       </c>
     </row>
-    <row spans="1:8" r="21">
+    <row r="21" spans="1:8">
       <c t="s" r="A21">
         <v>120</v>
       </c>
@@ -1324,7 +1324,7 @@
         <v>144</v>
       </c>
     </row>
-    <row spans="1:8" r="22">
+    <row r="22" spans="1:8">
       <c t="s" r="A22">
         <v>114</v>
       </c>
@@ -1347,7 +1347,7 @@
         <v>144</v>
       </c>
     </row>
-    <row spans="1:8" r="23">
+    <row r="23" spans="1:8">
       <c t="s" r="A23">
         <v>79</v>
       </c>
@@ -1370,7 +1370,7 @@
         <v>144</v>
       </c>
     </row>
-    <row spans="1:8" r="24">
+    <row r="24" spans="1:8">
       <c t="s" r="A24">
         <v>97</v>
       </c>
@@ -1393,7 +1393,7 @@
         <v>144</v>
       </c>
     </row>
-    <row spans="1:8" r="25">
+    <row r="25" spans="1:8">
       <c t="s" r="A25">
         <v>3</v>
       </c>
@@ -1416,7 +1416,7 @@
         <v>144</v>
       </c>
     </row>
-    <row spans="1:8" r="26">
+    <row r="26" spans="1:8">
       <c t="s" r="A26">
         <v>73</v>
       </c>
@@ -1439,7 +1439,7 @@
         <v>144</v>
       </c>
     </row>
-    <row spans="1:8" r="27">
+    <row r="27" spans="1:8">
       <c t="s" r="A27">
         <v>86</v>
       </c>
@@ -1462,7 +1462,7 @@
         <v>144</v>
       </c>
     </row>
-    <row spans="1:8" r="28">
+    <row r="28" spans="1:8">
       <c t="s" r="A28">
         <v>77</v>
       </c>
@@ -1485,7 +1485,7 @@
         <v>144</v>
       </c>
     </row>
-    <row spans="1:8" r="29">
+    <row r="29" spans="1:8">
       <c t="s" r="A29">
         <v>71</v>
       </c>
@@ -1508,7 +1508,7 @@
         <v>144</v>
       </c>
     </row>
-    <row spans="1:8" r="30">
+    <row r="30" spans="1:8">
       <c t="s" r="A30">
         <v>83</v>
       </c>
@@ -1531,7 +1531,7 @@
         <v>144</v>
       </c>
     </row>
-    <row spans="1:8" r="31">
+    <row r="31" spans="1:8">
       <c t="s" r="A31">
         <v>82</v>
       </c>
@@ -1554,7 +1554,7 @@
         <v>144</v>
       </c>
     </row>
-    <row spans="1:8" r="32">
+    <row r="32" spans="1:8">
       <c t="s" r="A32">
         <v>80</v>
       </c>
@@ -1577,7 +1577,7 @@
         <v>144</v>
       </c>
     </row>
-    <row spans="1:8" r="33">
+    <row r="33" spans="1:8">
       <c t="s" r="A33">
         <v>81</v>
       </c>
@@ -1600,7 +1600,7 @@
         <v>144</v>
       </c>
     </row>
-    <row spans="1:8" r="34">
+    <row r="34" spans="1:8">
       <c t="s" r="A34">
         <v>84</v>
       </c>
@@ -1623,7 +1623,7 @@
         <v>144</v>
       </c>
     </row>
-    <row spans="1:8" r="35">
+    <row r="35" spans="1:8">
       <c t="s" r="A35">
         <v>142</v>
       </c>
@@ -1646,7 +1646,7 @@
         <v>144</v>
       </c>
     </row>
-    <row spans="1:8" r="36">
+    <row r="36" spans="1:8">
       <c t="s" r="A36">
         <v>90</v>
       </c>
@@ -1669,7 +1669,7 @@
         <v>144</v>
       </c>
     </row>
-    <row spans="1:8" r="37">
+    <row r="37" spans="1:8">
       <c t="s" r="A37">
         <v>115</v>
       </c>
@@ -1692,7 +1692,7 @@
         <v>144</v>
       </c>
     </row>
-    <row spans="1:8" r="38">
+    <row r="38" spans="1:8">
       <c t="s" r="A38">
         <v>91</v>
       </c>
@@ -1715,7 +1715,7 @@
         <v>144</v>
       </c>
     </row>
-    <row spans="1:8" r="39">
+    <row r="39" spans="1:8">
       <c t="s" r="A39">
         <v>93</v>
       </c>
@@ -1738,7 +1738,7 @@
         <v>144</v>
       </c>
     </row>
-    <row spans="1:8" r="40">
+    <row r="40" spans="1:8">
       <c t="s" r="A40">
         <v>92</v>
       </c>
@@ -1761,7 +1761,7 @@
         <v>144</v>
       </c>
     </row>
-    <row spans="1:8" r="41">
+    <row r="41" spans="1:8">
       <c t="s" r="A41">
         <v>4</v>
       </c>
@@ -1784,7 +1784,7 @@
         <v>144</v>
       </c>
     </row>
-    <row spans="1:8" r="42">
+    <row r="42" spans="1:8">
       <c t="s" r="A42">
         <v>94</v>
       </c>
@@ -1807,7 +1807,7 @@
         <v>144</v>
       </c>
     </row>
-    <row spans="1:8" r="43">
+    <row r="43" spans="1:8">
       <c t="s" r="A43">
         <v>116</v>
       </c>
@@ -1830,7 +1830,7 @@
         <v>144</v>
       </c>
     </row>
-    <row spans="1:8" r="44">
+    <row r="44" spans="1:8">
       <c t="s" r="A44">
         <v>132</v>
       </c>
@@ -1853,7 +1853,7 @@
         <v>144</v>
       </c>
     </row>
-    <row spans="1:8" r="45">
+    <row r="45" spans="1:8">
       <c t="s" r="A45">
         <v>74</v>
       </c>
@@ -1876,7 +1876,7 @@
         <v>144</v>
       </c>
     </row>
-    <row spans="1:8" r="46">
+    <row r="46" spans="1:8">
       <c t="s" r="A46">
         <v>131</v>
       </c>
@@ -1899,7 +1899,7 @@
         <v>144</v>
       </c>
     </row>
-    <row spans="1:8" r="47">
+    <row r="47" spans="1:8">
       <c t="s" r="A47">
         <v>89</v>
       </c>
@@ -1922,7 +1922,7 @@
         <v>144</v>
       </c>
     </row>
-    <row spans="1:8" r="48">
+    <row r="48" spans="1:8">
       <c t="s" r="A48">
         <v>131</v>
       </c>
@@ -1945,7 +1945,7 @@
         <v>144</v>
       </c>
     </row>
-    <row spans="1:8" r="49">
+    <row r="49" spans="1:8">
       <c t="s" r="A49">
         <v>88</v>
       </c>
@@ -1968,7 +1968,7 @@
         <v>144</v>
       </c>
     </row>
-    <row spans="1:8" r="50">
+    <row r="50" spans="1:8">
       <c t="s" r="A50">
         <v>102</v>
       </c>
@@ -1991,7 +1991,7 @@
         <v>144</v>
       </c>
     </row>
-    <row spans="1:8" r="51">
+    <row r="51" spans="1:8">
       <c t="s" r="A51">
         <v>100</v>
       </c>
@@ -2014,7 +2014,7 @@
         <v>144</v>
       </c>
     </row>
-    <row spans="1:8" r="52">
+    <row r="52" spans="1:8">
       <c t="s" r="A52">
         <v>101</v>
       </c>
@@ -2037,7 +2037,7 @@
         <v>144</v>
       </c>
     </row>
-    <row spans="1:8" r="53">
+    <row r="53" spans="1:8">
       <c t="s" r="A53">
         <v>72</v>
       </c>
@@ -2060,7 +2060,7 @@
         <v>144</v>
       </c>
     </row>
-    <row spans="1:8" r="54">
+    <row r="54" spans="1:8">
       <c t="s" r="A54">
         <v>78</v>
       </c>
@@ -2083,7 +2083,7 @@
         <v>144</v>
       </c>
     </row>
-    <row spans="1:8" r="55">
+    <row r="55" spans="1:8">
       <c t="s" r="A55">
         <v>113</v>
       </c>
@@ -2106,7 +2106,7 @@
         <v>144</v>
       </c>
     </row>
-    <row spans="1:8" r="56">
+    <row r="56" spans="1:8">
       <c t="s" r="A56">
         <v>131</v>
       </c>
@@ -2129,7 +2129,7 @@
         <v>144</v>
       </c>
     </row>
-    <row spans="1:8" r="57">
+    <row r="57" spans="1:8">
       <c t="s" r="A57">
         <v>140</v>
       </c>
@@ -2152,7 +2152,7 @@
         <v>144</v>
       </c>
     </row>
-    <row spans="1:8" r="58">
+    <row r="58" spans="1:8">
       <c t="s" r="A58">
         <v>131</v>
       </c>
@@ -2175,7 +2175,7 @@
         <v>144</v>
       </c>
     </row>
-    <row spans="1:8" r="59">
+    <row r="59" spans="1:8">
       <c t="s" r="A59">
         <v>130</v>
       </c>
@@ -2198,7 +2198,7 @@
         <v>144</v>
       </c>
     </row>
-    <row spans="1:8" r="60">
+    <row r="60" spans="1:8">
       <c t="s" r="A60">
         <v>135</v>
       </c>
@@ -2221,7 +2221,7 @@
         <v>144</v>
       </c>
     </row>
-    <row spans="1:8" r="61">
+    <row r="61" spans="1:8">
       <c t="s" r="A61">
         <v>104</v>
       </c>
@@ -2244,7 +2244,7 @@
         <v>144</v>
       </c>
     </row>
-    <row spans="1:8" r="62">
+    <row r="62" spans="1:8">
       <c t="s" r="A62">
         <v>105</v>
       </c>
@@ -2267,7 +2267,7 @@
         <v>144</v>
       </c>
     </row>
-    <row spans="1:8" r="63">
+    <row r="63" spans="1:8">
       <c t="s" r="A63">
         <v>98</v>
       </c>
@@ -2290,7 +2290,7 @@
         <v>144</v>
       </c>
     </row>
-    <row spans="1:8" r="64">
+    <row r="64" spans="1:8">
       <c t="s" r="A64">
         <v>99</v>
       </c>
@@ -2313,7 +2313,7 @@
         <v>144</v>
       </c>
     </row>
-    <row spans="1:8" r="65">
+    <row r="65" spans="1:8">
       <c t="s" r="A65">
         <v>103</v>
       </c>
@@ -2336,7 +2336,7 @@
         <v>144</v>
       </c>
     </row>
-    <row spans="1:8" r="66">
+    <row r="66" spans="1:8">
       <c t="s" r="A66">
         <v>127</v>
       </c>
@@ -2359,7 +2359,7 @@
         <v>144</v>
       </c>
     </row>
-    <row spans="1:8" r="67">
+    <row r="67" spans="1:8">
       <c t="s" r="A67">
         <v>130</v>
       </c>
@@ -2382,7 +2382,7 @@
         <v>144</v>
       </c>
     </row>
-    <row spans="1:8" r="68">
+    <row r="68" spans="1:8">
       <c t="s" r="A68">
         <v>1</v>
       </c>
@@ -2405,7 +2405,7 @@
         <v>144</v>
       </c>
     </row>
-    <row spans="1:8" r="69">
+    <row r="69" spans="1:8">
       <c t="s" r="A69">
         <v>87</v>
       </c>
@@ -2428,7 +2428,7 @@
         <v>144</v>
       </c>
     </row>
-    <row spans="1:8" r="70">
+    <row r="70" spans="1:8">
       <c t="s" r="A70">
         <v>85</v>
       </c>
@@ -2451,7 +2451,7 @@
         <v>144</v>
       </c>
     </row>
-    <row spans="1:8" r="71">
+    <row r="71" spans="1:8">
       <c t="s" r="A71">
         <v>2</v>
       </c>
@@ -2474,7 +2474,7 @@
         <v>144</v>
       </c>
     </row>
-    <row spans="1:8" r="72">
+    <row r="72" spans="1:8">
       <c t="s" r="A72">
         <v>0</v>
       </c>
